--- a/说明文档.xlsx
+++ b/说明文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
@@ -19,102 +19,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数（对象）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yearInner</t>
-  </si>
-  <si>
-    <t>元素对象。年份的容器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monthInner</t>
-  </si>
-  <si>
-    <t>元素对象。月份的容器。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weeksInner</t>
-  </si>
-  <si>
-    <t>weeksTemplate</t>
-  </si>
-  <si>
-    <t>weeksText</t>
-  </si>
-  <si>
-    <t>元素对象。星期的包裹层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daysInner</t>
-  </si>
-  <si>
-    <t>元素对象。日期的包裹层。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>daysTemplate</t>
-  </si>
-  <si>
     <t>prevMonthBtn</t>
   </si>
   <si>
+    <t>prevFn</t>
+  </si>
+  <si>
+    <t>注：基本使用方法可以参考demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>horizontal</t>
+  </si>
+  <si>
+    <t>horizontal'/'vertical'，定义日历类型为水平还是垂直。(必选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element，包裹日历的元素。(必选)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>number，定义垂直日历的个数。(type为'vertical'时必选，'horizontal'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YMWWrap</t>
+  </si>
+  <si>
+    <t>element，水平日历时包裹年、月、日的元素。(type为'horizontal'时必选，'vertical'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daysWrap</t>
+  </si>
+  <si>
+    <t>element，水平日历时包裹日期的元素。(type为'horizontal'时必选，'vertical'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number，用于设置日历初始化时的月份，可以取任何正、负整数。（可选）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element，绑定水平日历切换到下一个月份的按钮。(type为'horizontal'时可选，'vertical'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nextMonthBtn</t>
-  </si>
-  <si>
-    <t>m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素对象。显示下一个月的按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素对象。显示上一个月的按钮。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串。日期的html模板，要插入日期的位置需要加入weeksTemplate占位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定义星期的显示文本，如:['mon','tue',...]，默认为['周一','周二','周三','周四','周五','周六','周日']。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串。星期的html模板，要插入星期的位置需要加入weeksTemplate占位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prevFn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>element，绑定水平日历切换到上一个月份的按钮。(type为'horizontal'时可选，'vertical'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nextFn</t>
-  </si>
-  <si>
-    <t>函数。点击上个月按钮时触发的函数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数。点击下个月按钮时触发的函数。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：基本使用方法可以参考demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值为0-11(1-12月)的数字。用来设置日历初始显示的月份，默认显示本月。（12为来年1月，-1为去年12月，此值可很大或很小，但无法无限大或无限小）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function，点击按钮切换到下一个月时触发的函数，函数返回三个参数分别为：nowOne(当前月份的日期包裹元素)、newOne(即将切换的日期包裹元素)、wrap(水平日历时包裹日期的元素daysWrap)(type为'horizontal'时可选，'vertical'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function，点击按钮切换到上一个月时触发的函数，函数返回三个参数分别为：nowOne(当前月份的日期包裹元素)、newOne(即将切换的日期包裹元素)、wrap(水平日历时包裹日期的元素daysWrap)(type为'horizontal'时可选，'vertical'时无效)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数（对象属性）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -222,6 +211,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -520,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -530,109 +525,93 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="7"/>
+      <c r="A13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
